--- a/biology/Mycologie/Verticillium_dahliae/Verticillium_dahliae.xlsx
+++ b/biology/Mycologie/Verticillium_dahliae/Verticillium_dahliae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Verticillium dahliae est une espèce de champignons ascomycètes phytopathogènes de la famille des Plectosphaerellaceae.
 Ce champignon tellurique (vivant dans le sol) provoque chez ses diverses plantes hôtes des symptômes de jaunisse et de flétrissement verticillien ou verticilliose assez semblables à ceux dus à Verticillium albo-atrum.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Synonymes :
 Verticillium albo-atrum var. chlamydosporale,
